--- a/NformTester/NformTester/keywordscripts/TST1173_ChangeAlarmSeverity.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1173_ChangeAlarmSeverity.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8448" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8448" uniqueCount="910">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3878,13 +3878,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3942,10 +3935,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"Input over voltage"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4033,10 +4022,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10:163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4067,6 +4052,30 @@
   </si>
   <si>
     <t>Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Input Over Voltage"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_Ip_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4598,8 +4607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4822,13 +4831,13 @@
         <v>823</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>632</v>
@@ -4841,19 +4850,19 @@
         <v>857</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>860</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -4868,7 +4877,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4925,7 +4934,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -4984,7 +4993,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5030,10 +5039,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -5056,7 +5065,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="4"/>
@@ -5078,7 +5087,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>814</v>
@@ -5086,13 +5095,13 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="9" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -5108,10 +5117,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -5136,7 +5145,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -5191,7 +5200,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -5282,10 +5291,10 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -5304,7 +5313,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>846</v>
+        <v>908</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>226</v>
@@ -5316,13 +5325,13 @@
         <v>7</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -5358,10 +5367,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
@@ -5380,7 +5389,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="4"/>
@@ -5428,10 +5437,10 @@
         <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -5446,10 +5455,10 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>633</v>
@@ -5458,7 +5467,7 @@
         <v>56</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>859</v>
+        <v>905</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5472,10 +5481,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>205</v>
@@ -5532,7 +5541,7 @@
         <v>56</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -5558,13 +5567,13 @@
         <v>7</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -5588,7 +5597,7 @@
         <v>13</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -5614,10 +5623,10 @@
         <v>7</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J38" s="4" t="b">
         <v>0</v>
@@ -5668,10 +5677,10 @@
         <v>7</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J40" s="4" t="b">
         <v>1</v>
@@ -5737,7 +5746,7 @@
         <v>846</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>100</v>
@@ -5758,10 +5767,10 @@
         <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F44" s="4">
         <v>2</v>
@@ -5780,7 +5789,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -5831,7 +5840,7 @@
         <v>27</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -5882,7 +5891,7 @@
         <v>3</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -5920,10 +5929,10 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -5942,7 +5951,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="4"/>
@@ -5960,7 +5969,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>814</v>
@@ -5968,13 +5977,13 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="9" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="I53" s="9">
         <v>1</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -5986,10 +5995,10 @@
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F54" s="4">
         <v>2</v>
@@ -6008,7 +6017,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="4"/>
@@ -6026,7 +6035,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>19</v>
@@ -6035,7 +6044,7 @@
         <v>26</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -6050,7 +6059,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>19</v>
@@ -6059,7 +6068,7 @@
         <v>27</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -6074,7 +6083,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>19</v>
@@ -6098,7 +6107,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>19</v>
@@ -6126,7 +6135,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>19</v>
@@ -6150,10 +6159,10 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -6172,7 +6181,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>846</v>
+        <v>908</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>226</v>
@@ -6184,13 +6193,13 @@
         <v>7</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>899</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>903</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -6226,10 +6235,10 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F64" s="4">
         <v>2</v>
@@ -6248,7 +6257,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="4"/>
@@ -6296,10 +6305,10 @@
         <v>19</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -6314,10 +6323,10 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>633</v>
@@ -6326,7 +6335,7 @@
         <v>56</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>859</v>
+        <v>905</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6340,10 +6349,10 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>205</v>
@@ -6400,7 +6409,7 @@
         <v>56</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6426,13 +6435,13 @@
         <v>7</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -6456,13 +6465,13 @@
         <v>7</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -6486,7 +6495,7 @@
         <v>13</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -6575,7 +6584,7 @@
         <v>846</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>100</v>
@@ -6596,10 +6605,10 @@
         <v>78</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F79" s="4">
         <v>2</v>
@@ -6618,7 +6627,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -6669,7 +6678,7 @@
         <v>27</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
@@ -6720,7 +6729,7 @@
         <v>3</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -6758,10 +6767,10 @@
         <v>85</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F86" s="4">
         <v>1</v>
@@ -6780,7 +6789,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="4"/>
@@ -6798,7 +6807,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>814</v>
@@ -6806,13 +6815,13 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="9" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="I88" s="9">
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -6824,10 +6833,10 @@
         <v>88</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F89" s="4">
         <v>2</v>
@@ -6846,7 +6855,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="4"/>
@@ -6864,7 +6873,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>19</v>
@@ -6873,7 +6882,7 @@
         <v>26</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
@@ -6888,7 +6897,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>19</v>
@@ -6897,7 +6906,7 @@
         <v>27</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
@@ -6912,7 +6921,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>19</v>
@@ -6936,7 +6945,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>19</v>
@@ -6964,7 +6973,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>19</v>
@@ -6988,10 +6997,10 @@
         <v>95</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
@@ -7010,7 +7019,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>846</v>
+        <v>908</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>226</v>
@@ -7022,13 +7031,13 @@
         <v>7</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -7064,10 +7073,10 @@
         <v>98</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F99" s="4">
         <v>2</v>
@@ -7086,7 +7095,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="4"/>
@@ -7134,10 +7143,10 @@
         <v>19</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -7152,10 +7161,10 @@
         <v>102</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>633</v>
@@ -7164,7 +7173,7 @@
         <v>56</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>859</v>
+        <v>905</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7178,10 +7187,10 @@
         <v>103</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>205</v>
@@ -7238,7 +7247,7 @@
         <v>56</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -7264,13 +7273,13 @@
         <v>7</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -7294,13 +7303,13 @@
         <v>7</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -7324,7 +7333,7 @@
         <v>13</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
@@ -7413,7 +7422,7 @@
         <v>846</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>100</v>
@@ -7434,10 +7443,10 @@
         <v>113</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F114" s="4">
         <v>2</v>
@@ -7456,7 +7465,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -7507,7 +7516,7 @@
         <v>27</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -7558,7 +7567,7 @@
         <v>3</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -7596,10 +7605,10 @@
         <v>120</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -7618,7 +7627,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="4"/>
@@ -7636,7 +7645,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>814</v>
@@ -7644,13 +7653,13 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="9" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="I123" s="9">
         <v>1</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -7662,10 +7671,10 @@
         <v>123</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F124" s="4">
         <v>2</v>
@@ -7684,7 +7693,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="4"/>
@@ -7702,7 +7711,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>19</v>
@@ -7711,7 +7720,7 @@
         <v>26</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
@@ -7726,7 +7735,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>19</v>
@@ -7735,7 +7744,7 @@
         <v>27</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
@@ -7750,7 +7759,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>19</v>
@@ -7774,7 +7783,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>19</v>
@@ -7802,7 +7811,7 @@
         <v>129</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>19</v>
@@ -7826,10 +7835,10 @@
         <v>130</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -7848,7 +7857,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>846</v>
+        <v>908</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>226</v>
@@ -7860,13 +7869,13 @@
         <v>7</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -7902,10 +7911,10 @@
         <v>133</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F134" s="4">
         <v>2</v>
@@ -7924,7 +7933,7 @@
         <v>134</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="4"/>
@@ -7972,10 +7981,10 @@
         <v>19</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
@@ -7990,10 +7999,10 @@
         <v>137</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>633</v>
@@ -8002,7 +8011,7 @@
         <v>56</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>859</v>
+        <v>905</v>
       </c>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -8016,10 +8025,10 @@
         <v>138</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>205</v>
@@ -8076,7 +8085,7 @@
         <v>56</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -8102,13 +8111,13 @@
         <v>7</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
@@ -8132,13 +8141,13 @@
         <v>7</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
@@ -8162,7 +8171,7 @@
         <v>13</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
@@ -8251,7 +8260,7 @@
         <v>846</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>100</v>
@@ -8272,10 +8281,10 @@
         <v>148</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F149" s="4">
         <v>2</v>
@@ -8294,7 +8303,7 @@
         <v>149</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -8345,7 +8354,7 @@
         <v>27</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
@@ -8396,7 +8405,7 @@
         <v>3</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -8434,10 +8443,10 @@
         <v>155</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F156" s="4">
         <v>1</v>
@@ -8456,7 +8465,7 @@
         <v>156</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="4"/>
@@ -8474,7 +8483,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>814</v>
@@ -8482,13 +8491,13 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="9" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="I158" s="9">
         <v>1</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
@@ -8500,10 +8509,10 @@
         <v>158</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F159" s="4">
         <v>2</v>
@@ -8522,7 +8531,7 @@
         <v>159</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="4"/>
@@ -8540,7 +8549,7 @@
         <v>160</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>19</v>
@@ -8549,7 +8558,7 @@
         <v>26</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
@@ -8564,7 +8573,7 @@
         <v>161</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>19</v>
@@ -8573,7 +8582,7 @@
         <v>27</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
@@ -8588,7 +8597,7 @@
         <v>162</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>19</v>
@@ -8612,7 +8621,7 @@
         <v>163</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>19</v>
@@ -8640,7 +8649,7 @@
         <v>164</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>19</v>
@@ -8664,10 +8673,10 @@
         <v>165</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F166" s="4">
         <v>1</v>
@@ -8686,7 +8695,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>846</v>
+        <v>908</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>226</v>
@@ -8698,13 +8707,13 @@
         <v>7</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -8740,10 +8749,10 @@
         <v>168</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F169" s="4">
         <v>2</v>
@@ -8762,7 +8771,7 @@
         <v>169</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="4"/>
@@ -8810,10 +8819,10 @@
         <v>19</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
@@ -8828,10 +8837,10 @@
         <v>172</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>633</v>
@@ -8840,7 +8849,7 @@
         <v>56</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>859</v>
+        <v>905</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -8854,10 +8863,10 @@
         <v>173</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>205</v>
@@ -8914,7 +8923,7 @@
         <v>56</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
@@ -8940,13 +8949,13 @@
         <v>7</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
@@ -8970,13 +8979,13 @@
         <v>7</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
@@ -9000,7 +9009,7 @@
         <v>13</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
@@ -9089,7 +9098,7 @@
         <v>846</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>100</v>
@@ -9110,10 +9119,10 @@
         <v>183</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F184" s="4">
         <v>2</v>
@@ -9132,7 +9141,7 @@
         <v>184</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -9183,7 +9192,7 @@
         <v>27</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H187" s="9"/>
       <c r="I187" s="9"/>
@@ -9234,7 +9243,7 @@
         <v>3</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
@@ -9272,10 +9281,10 @@
         <v>190</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F191" s="4">
         <v>1</v>
@@ -9294,7 +9303,7 @@
         <v>191</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="4"/>
@@ -9312,7 +9321,7 @@
         <v>192</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>814</v>
@@ -9320,13 +9329,13 @@
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="9" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="I193" s="9">
         <v>1</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
@@ -9338,10 +9347,10 @@
         <v>193</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F194" s="4">
         <v>2</v>
@@ -9360,7 +9369,7 @@
         <v>194</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="4"/>
@@ -9378,7 +9387,7 @@
         <v>195</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>19</v>
@@ -9387,7 +9396,7 @@
         <v>26</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
@@ -9402,7 +9411,7 @@
         <v>196</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>19</v>
@@ -9411,7 +9420,7 @@
         <v>27</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
@@ -9426,7 +9435,7 @@
         <v>197</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>19</v>
@@ -9450,7 +9459,7 @@
         <v>198</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>19</v>
@@ -9478,7 +9487,7 @@
         <v>199</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>19</v>
@@ -9502,10 +9511,10 @@
         <v>200</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F201" s="4">
         <v>1</v>
@@ -9524,7 +9533,7 @@
         <v>201</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>846</v>
+        <v>909</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>226</v>
@@ -9536,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
@@ -9578,10 +9587,10 @@
         <v>203</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F204" s="4">
         <v>2</v>
@@ -9600,7 +9609,7 @@
         <v>204</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="4"/>
@@ -9688,10 +9697,10 @@
         <v>208</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>633</v>
@@ -9700,7 +9709,7 @@
         <v>3</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
@@ -9714,10 +9723,10 @@
         <v>209</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>215</v>
@@ -9738,7 +9747,7 @@
         <v>210</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>640</v>
@@ -9762,10 +9771,10 @@
         <v>211</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>100</v>

--- a/NformTester/NformTester/keywordscripts/TST1173_ChangeAlarmSeverity.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1173_ChangeAlarmSeverity.xlsx
@@ -3911,10 +3911,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_Trap$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Check the severity of this alarm on "Device Properties" window.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4051,31 +4047,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Input Over Voltage"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_Ip_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4607,8 +4607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4620,6 +4620,7 @@
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4783,7 +4784,7 @@
         <v>831</v>
       </c>
       <c r="B6" s="8">
-        <v>41135</v>
+        <v>41446</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4828,16 +4829,14 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>903</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>632</v>
@@ -4850,10 +4849,10 @@
         <v>857</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>858</v>
@@ -4868,11 +4867,9 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>834</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -4891,8 +4888,12 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>834</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4917,10 +4918,8 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4946,7 +4945,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
@@ -4974,7 +4973,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
@@ -5004,7 +5003,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
@@ -5032,7 +5031,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
@@ -5058,7 +5057,7 @@
     </row>
     <row r="16" spans="1:14" ht="15">
       <c r="A16" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
@@ -5079,10 +5078,10 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13" t="s">
-        <v>841</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5095,13 +5094,13 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="9" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -5111,7 +5110,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5135,17 +5134,15 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="15">
-      <c r="A19" s="2" t="s">
-        <v>843</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -5160,9 +5157,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B20" s="13"/>
+        <v>843</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>834</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5187,6 +5186,10 @@
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14">
+      <c r="A21" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="4">
         <v>20</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>226</v>
@@ -5325,13 +5328,13 @@
         <v>7</v>
       </c>
       <c r="H26" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>874</v>
-      </c>
       <c r="J26" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -5367,7 +5370,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>865</v>
@@ -5389,7 +5392,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="4"/>
@@ -5437,7 +5440,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>862</v>
@@ -5455,10 +5458,10 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>633</v>
@@ -5467,7 +5470,7 @@
         <v>56</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5481,10 +5484,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>205</v>
@@ -5541,7 +5544,7 @@
         <v>56</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -5567,13 +5570,13 @@
         <v>7</v>
       </c>
       <c r="H36" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>874</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>875</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -5597,7 +5600,7 @@
         <v>13</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -5623,10 +5626,10 @@
         <v>7</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J38" s="4" t="b">
         <v>0</v>
@@ -5677,10 +5680,10 @@
         <v>7</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J40" s="4" t="b">
         <v>1</v>
@@ -5746,7 +5749,7 @@
         <v>846</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>100</v>
@@ -5951,7 +5954,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="4"/>
@@ -5977,13 +5980,13 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="9" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I53" s="9">
         <v>1</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -6017,7 +6020,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="4"/>
@@ -6035,7 +6038,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>19</v>
@@ -6059,7 +6062,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>19</v>
@@ -6083,7 +6086,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>19</v>
@@ -6107,7 +6110,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>19</v>
@@ -6135,7 +6138,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>19</v>
@@ -6181,7 +6184,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>226</v>
@@ -6193,13 +6196,13 @@
         <v>7</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -6235,7 +6238,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>865</v>
@@ -6257,7 +6260,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="4"/>
@@ -6305,7 +6308,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>862</v>
@@ -6323,10 +6326,10 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>633</v>
@@ -6335,7 +6338,7 @@
         <v>56</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6349,10 +6352,10 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>205</v>
@@ -6409,7 +6412,7 @@
         <v>56</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6435,13 +6438,13 @@
         <v>7</v>
       </c>
       <c r="H72" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="J72" s="4" t="s">
         <v>874</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>875</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -6465,13 +6468,13 @@
         <v>7</v>
       </c>
       <c r="H73" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>874</v>
-      </c>
       <c r="J73" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -6495,7 +6498,7 @@
         <v>13</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -6584,7 +6587,7 @@
         <v>846</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>100</v>
@@ -6789,7 +6792,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="4"/>
@@ -6815,13 +6818,13 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="9" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I88" s="9">
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -6855,7 +6858,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="4"/>
@@ -6873,7 +6876,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>19</v>
@@ -6897,7 +6900,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>19</v>
@@ -6921,7 +6924,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>19</v>
@@ -6945,7 +6948,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>19</v>
@@ -6973,7 +6976,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>19</v>
@@ -7019,7 +7022,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>226</v>
@@ -7031,13 +7034,13 @@
         <v>7</v>
       </c>
       <c r="H97" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I97" s="4" t="s">
-        <v>874</v>
-      </c>
       <c r="J97" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -7095,7 +7098,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="4"/>
@@ -7143,7 +7146,7 @@
         <v>19</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>862</v>
@@ -7161,10 +7164,10 @@
         <v>102</v>
       </c>
       <c r="D103" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>633</v>
@@ -7173,7 +7176,7 @@
         <v>56</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7187,10 +7190,10 @@
         <v>103</v>
       </c>
       <c r="D104" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E104" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>205</v>
@@ -7247,7 +7250,7 @@
         <v>56</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -7273,13 +7276,13 @@
         <v>7</v>
       </c>
       <c r="H107" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I107" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="J107" s="4" t="s">
         <v>874</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>875</v>
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -7303,13 +7306,13 @@
         <v>7</v>
       </c>
       <c r="H108" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I108" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I108" s="4" t="s">
-        <v>874</v>
-      </c>
       <c r="J108" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -7333,7 +7336,7 @@
         <v>13</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
@@ -7422,7 +7425,7 @@
         <v>846</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>100</v>
@@ -7627,7 +7630,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="4"/>
@@ -7653,13 +7656,13 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="9" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I123" s="9">
         <v>1</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -7693,7 +7696,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="4"/>
@@ -7711,7 +7714,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>19</v>
@@ -7735,7 +7738,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>19</v>
@@ -7759,7 +7762,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>19</v>
@@ -7783,7 +7786,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>19</v>
@@ -7811,7 +7814,7 @@
         <v>129</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>19</v>
@@ -7857,7 +7860,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>226</v>
@@ -7869,13 +7872,13 @@
         <v>7</v>
       </c>
       <c r="H132" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I132" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I132" s="4" t="s">
-        <v>874</v>
-      </c>
       <c r="J132" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -7933,7 +7936,7 @@
         <v>134</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="4"/>
@@ -7981,7 +7984,7 @@
         <v>19</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>862</v>
@@ -7999,10 +8002,10 @@
         <v>137</v>
       </c>
       <c r="D138" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E138" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>633</v>
@@ -8011,7 +8014,7 @@
         <v>56</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -8025,10 +8028,10 @@
         <v>138</v>
       </c>
       <c r="D139" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E139" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>205</v>
@@ -8085,7 +8088,7 @@
         <v>56</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -8111,13 +8114,13 @@
         <v>7</v>
       </c>
       <c r="H142" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I142" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I142" s="4" t="s">
+      <c r="J142" s="4" t="s">
         <v>874</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>875</v>
       </c>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
@@ -8141,13 +8144,13 @@
         <v>7</v>
       </c>
       <c r="H143" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I143" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I143" s="4" t="s">
-        <v>874</v>
-      </c>
       <c r="J143" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
@@ -8171,7 +8174,7 @@
         <v>13</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
@@ -8260,7 +8263,7 @@
         <v>846</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>100</v>
@@ -8465,7 +8468,7 @@
         <v>156</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="4"/>
@@ -8491,13 +8494,13 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="9" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I158" s="9">
         <v>1</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
@@ -8531,7 +8534,7 @@
         <v>159</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="4"/>
@@ -8549,7 +8552,7 @@
         <v>160</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>19</v>
@@ -8573,7 +8576,7 @@
         <v>161</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>19</v>
@@ -8597,7 +8600,7 @@
         <v>162</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>19</v>
@@ -8621,7 +8624,7 @@
         <v>163</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>19</v>
@@ -8649,7 +8652,7 @@
         <v>164</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>19</v>
@@ -8695,7 +8698,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>226</v>
@@ -8707,13 +8710,13 @@
         <v>7</v>
       </c>
       <c r="H167" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I167" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I167" s="4" t="s">
-        <v>874</v>
-      </c>
       <c r="J167" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -8771,7 +8774,7 @@
         <v>169</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="4"/>
@@ -8819,7 +8822,7 @@
         <v>19</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>862</v>
@@ -8837,10 +8840,10 @@
         <v>172</v>
       </c>
       <c r="D173" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E173" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>633</v>
@@ -8849,7 +8852,7 @@
         <v>56</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -8863,10 +8866,10 @@
         <v>173</v>
       </c>
       <c r="D174" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E174" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>205</v>
@@ -8923,7 +8926,7 @@
         <v>56</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
@@ -8949,13 +8952,13 @@
         <v>7</v>
       </c>
       <c r="H177" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I177" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I177" s="4" t="s">
+      <c r="J177" s="4" t="s">
         <v>874</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>875</v>
       </c>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
@@ -8979,13 +8982,13 @@
         <v>7</v>
       </c>
       <c r="H178" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I178" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I178" s="4" t="s">
-        <v>874</v>
-      </c>
       <c r="J178" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
@@ -9009,7 +9012,7 @@
         <v>13</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
@@ -9098,7 +9101,7 @@
         <v>846</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>100</v>
@@ -9303,7 +9306,7 @@
         <v>191</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="4"/>
@@ -9329,13 +9332,13 @@
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="9" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I193" s="9">
         <v>1</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
@@ -9369,7 +9372,7 @@
         <v>194</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="4"/>
@@ -9387,7 +9390,7 @@
         <v>195</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>19</v>
@@ -9411,7 +9414,7 @@
         <v>196</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>19</v>
@@ -9435,7 +9438,7 @@
         <v>197</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>19</v>
@@ -9459,7 +9462,7 @@
         <v>198</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>19</v>
@@ -9487,7 +9490,7 @@
         <v>199</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>19</v>
@@ -9533,7 +9536,7 @@
         <v>201</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>226</v>
@@ -9545,13 +9548,13 @@
         <v>7</v>
       </c>
       <c r="H202" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I202" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="I202" s="4" t="s">
-        <v>874</v>
-      </c>
       <c r="J202" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
@@ -9609,7 +9612,7 @@
         <v>204</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="4"/>
@@ -9697,10 +9700,10 @@
         <v>208</v>
       </c>
       <c r="D209" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="E209" s="9" t="s">
         <v>893</v>
-      </c>
-      <c r="E209" s="9" t="s">
-        <v>894</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>633</v>
@@ -9723,10 +9726,10 @@
         <v>209</v>
       </c>
       <c r="D210" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="E210" s="9" t="s">
         <v>893</v>
-      </c>
-      <c r="E210" s="9" t="s">
-        <v>894</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>215</v>
@@ -9747,7 +9750,7 @@
         <v>210</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>640</v>
@@ -9771,10 +9774,10 @@
         <v>211</v>
       </c>
       <c r="D212" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="E212" s="9" t="s">
         <v>893</v>
-      </c>
-      <c r="E212" s="9" t="s">
-        <v>894</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>100</v>

--- a/NformTester/NformTester/keywordscripts/TST1173_ChangeAlarmSeverity.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1173_ChangeAlarmSeverity.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -4063,19 +4063,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_device_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$SNMP_GXT_Ip_Port$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$Trap_GXT_Trap$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SingleAuto_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SinAuto_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4607,8 +4607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="B166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4849,10 +4849,10 @@
         <v>857</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>858</v>
@@ -5094,13 +5094,13 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -5470,7 +5470,7 @@
         <v>56</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5980,13 +5980,13 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I53" s="9">
         <v>1</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -6338,7 +6338,7 @@
         <v>56</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6818,13 +6818,13 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I88" s="9">
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -7176,7 +7176,7 @@
         <v>56</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7656,13 +7656,13 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I123" s="9">
         <v>1</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -8014,7 +8014,7 @@
         <v>56</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -8494,13 +8494,13 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I158" s="9">
         <v>1</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
@@ -8852,7 +8852,7 @@
         <v>56</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -9332,13 +9332,13 @@
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I193" s="9">
         <v>1</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
